--- a/sample data/Sample EU Supreme Products for the Week of September 15 2022 (Week 4 of FW22) - Sheets.xlsx
+++ b/sample data/Sample EU Supreme Products for the Week of September 15 2022 (Week 4 of FW22) - Sheets.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="378">
   <si>
     <t>Name</t>
   </si>
@@ -65,6 +65,9 @@
     <t>Colors</t>
   </si>
   <si>
+    <t>Sizes</t>
+  </si>
+  <si>
     <t>Backpack</t>
   </si>
   <si>
@@ -158,6 +161,9 @@
     <t>Black,Red,Silver,Olive</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Supreme®/Independent® Truck</t>
   </si>
   <si>
@@ -221,6 +227,18 @@
     <t xml:space="preserve">Green - 8.125" x 32" ,Black - 8.25" x 32" ,White - 8" x 31.875" </t>
   </si>
   <si>
+    <t xml:space="preserve">129 ,139 ,149 </t>
+  </si>
+  <si>
+    <t>54MM</t>
+  </si>
+  <si>
+    <t>8 1/2</t>
+  </si>
+  <si>
+    <t>8 1/8</t>
+  </si>
+  <si>
     <t>Heavy Flannel Shirt</t>
   </si>
   <si>
@@ -281,6 +299,9 @@
     <t>Pink,Black,Rust</t>
   </si>
   <si>
+    <t>Small,Medium,Large,XLarge</t>
+  </si>
+  <si>
     <t>Supreme®/Nike® ACG Belted Denim Pant</t>
   </si>
   <si>
@@ -449,6 +470,12 @@
     <t>Washed Black</t>
   </si>
   <si>
+    <t xml:space="preserve">30 ,32 ,34 ,36 ,38 </t>
+  </si>
+  <si>
+    <t>Small,Medium,Large,XLarge,XXL</t>
+  </si>
+  <si>
     <t>Supreme®/Nike® ACG Nylon Trail Short</t>
   </si>
   <si>
@@ -1029,6 +1056,9 @@
   </si>
   <si>
     <t>Brown,Yellow,Light Blue,Black,Olive</t>
+  </si>
+  <si>
+    <t>S/M,M/L</t>
   </si>
   <si>
     <t>Supreme®/Pat McGrath Labs &lt;br&gt;Nail Polish (Set of 3)</t>
@@ -1485,13 +1515,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1531,19 +1561,22 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>307053</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>138</v>
@@ -1564,27 +1597,30 @@
         <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>307009</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>128</v>
@@ -1605,27 +1641,30 @@
         <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>307037</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>128</v>
@@ -1646,27 +1685,30 @@
         <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>307049</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>46</v>
@@ -1687,27 +1729,30 @@
         <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>42</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>307022</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>42</v>
@@ -1728,27 +1773,30 @@
         <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>307004</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>48</v>
@@ -1769,13 +1817,16 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1785,13 +1836,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1831,19 +1882,22 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B2">
         <v>307083</v>
       </c>
       <c r="C2" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D2" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="E2">
         <v>42</v>
@@ -1864,27 +1918,30 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L2" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="M2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>267</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B3">
         <v>307089</v>
       </c>
       <c r="C3" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="D3" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E3">
         <v>46</v>
@@ -1905,27 +1962,30 @@
         <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L3" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="M3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>338</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B4">
         <v>307088</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D4" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -1946,27 +2006,30 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L4" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="M4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>339</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B5">
         <v>307000</v>
       </c>
       <c r="C5" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D5" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="E5">
         <v>46</v>
@@ -1987,27 +2050,30 @@
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L5" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="M5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>340</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B6">
         <v>307075</v>
       </c>
       <c r="C6" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D6" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="E6">
         <v>54</v>
@@ -2028,27 +2094,30 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L6" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="M6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>341</v>
+      </c>
+      <c r="N6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B7">
         <v>306986</v>
       </c>
       <c r="C7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="E7">
         <v>44</v>
@@ -2069,27 +2138,30 @@
         <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="M7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>342</v>
+      </c>
+      <c r="N7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B8">
         <v>306981</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D8" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E8">
         <v>34</v>
@@ -2110,13 +2182,16 @@
         <v>52</v>
       </c>
       <c r="K8" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L8" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M8" t="s">
-        <v>334</v>
+        <v>343</v>
+      </c>
+      <c r="N8" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2126,13 +2201,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2172,19 +2247,22 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="B2">
         <v>307091</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D2" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="E2">
         <v>88</v>
@@ -2205,27 +2283,30 @@
         <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="L2" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="M2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>302</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="B3">
         <v>307002</v>
       </c>
       <c r="C3" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="D3" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="E3">
         <v>48</v>
@@ -2246,27 +2327,30 @@
         <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="L3" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="M3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>374</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B4">
         <v>307007</v>
       </c>
       <c r="C4" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D4" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="E4">
         <v>28</v>
@@ -2287,27 +2371,30 @@
         <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="L4" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="M4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>375</v>
+      </c>
+      <c r="N4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="B5">
         <v>306994</v>
       </c>
       <c r="C5" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="D5" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -2328,27 +2415,30 @@
         <v>62</v>
       </c>
       <c r="K5" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="L5" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="M5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>376</v>
+      </c>
+      <c r="N5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="B6">
         <v>307041</v>
       </c>
       <c r="C6" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="D6" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="E6">
         <v>36</v>
@@ -2369,27 +2459,30 @@
         <v>63</v>
       </c>
       <c r="K6" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="L6" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>375</v>
+      </c>
+      <c r="N6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B7">
         <v>307043</v>
       </c>
       <c r="C7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="D7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="E7">
         <v>28</v>
@@ -2410,27 +2503,30 @@
         <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="L7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="M7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>377</v>
+      </c>
+      <c r="N7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="B8">
         <v>307046</v>
       </c>
       <c r="C8" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="D8" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -2451,13 +2547,16 @@
         <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="L8" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="M8" t="s">
-        <v>365</v>
+        <v>375</v>
+      </c>
+      <c r="N8" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2467,13 +2566,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2513,19 +2612,22 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>307023</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>64</v>
@@ -2546,27 +2648,30 @@
         <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>63</v>
+      </c>
+      <c r="N2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>307054</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E3">
         <v>32</v>
@@ -2587,27 +2692,30 @@
         <v>67</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>64</v>
+      </c>
+      <c r="N3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>307011</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>58</v>
@@ -2628,27 +2736,30 @@
         <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>65</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>307039</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>58</v>
@@ -2669,13 +2780,16 @@
         <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2685,13 +2799,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2731,19 +2845,22 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>307085</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E2">
         <v>138</v>
@@ -2764,27 +2881,30 @@
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>87</v>
+      </c>
+      <c r="N2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>307070</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E3">
         <v>128</v>
@@ -2805,27 +2925,30 @@
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>88</v>
+      </c>
+      <c r="N3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B4">
         <v>306984</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E4">
         <v>110</v>
@@ -2846,24 +2969,27 @@
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>89</v>
+      </c>
+      <c r="N4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>307034</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E5">
         <v>110</v>
@@ -2884,13 +3010,16 @@
         <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>90</v>
+      </c>
+      <c r="N5" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2900,13 +3029,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2946,19 +3075,22 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>307090</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E2">
         <v>178</v>
@@ -2979,27 +3111,30 @@
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>137</v>
+      </c>
+      <c r="N2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B3">
         <v>307079</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E3">
         <v>128</v>
@@ -3020,27 +3155,30 @@
         <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>138</v>
+      </c>
+      <c r="N3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B4">
         <v>307074</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E4">
         <v>158</v>
@@ -3061,27 +3199,30 @@
         <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>139</v>
+      </c>
+      <c r="N4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B5">
         <v>307010</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E5">
         <v>158</v>
@@ -3102,27 +3243,30 @@
         <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>140</v>
+      </c>
+      <c r="N5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B6">
         <v>307056</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E6">
         <v>118</v>
@@ -3143,27 +3287,30 @@
         <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L6" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>141</v>
+      </c>
+      <c r="N6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B7">
         <v>307064</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E7">
         <v>148</v>
@@ -3184,27 +3331,30 @@
         <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>142</v>
+      </c>
+      <c r="N7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B8">
         <v>307031</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E8">
         <v>158</v>
@@ -3225,27 +3375,30 @@
         <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="M8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>143</v>
+      </c>
+      <c r="N8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B9">
         <v>307026</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E9">
         <v>148</v>
@@ -3266,27 +3419,30 @@
         <v>42</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>144</v>
+      </c>
+      <c r="N9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B10">
         <v>307006</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E10">
         <v>158</v>
@@ -3307,27 +3463,30 @@
         <v>43</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>145</v>
+      </c>
+      <c r="N10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B11">
         <v>307014</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E11">
         <v>168</v>
@@ -3348,27 +3507,30 @@
         <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>146</v>
+      </c>
+      <c r="N11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B12">
         <v>306998</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E12">
         <v>148</v>
@@ -3389,13 +3551,16 @@
         <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="M12" t="s">
-        <v>140</v>
+        <v>147</v>
+      </c>
+      <c r="N12" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3405,13 +3570,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3451,19 +3616,22 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B2">
         <v>307087</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E2">
         <v>118</v>
@@ -3484,27 +3652,30 @@
         <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="L2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>159</v>
+      </c>
+      <c r="N2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B3">
         <v>307016</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E3">
         <v>110</v>
@@ -3525,13 +3696,16 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="L3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N3" t="s">
         <v>149</v>
-      </c>
-      <c r="M3" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3541,13 +3715,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3587,19 +3761,22 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B2">
         <v>307086</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E2">
         <v>98</v>
@@ -3620,27 +3797,30 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="L2" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="M2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>206</v>
+      </c>
+      <c r="N2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B3">
         <v>307082</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E3">
         <v>42</v>
@@ -3661,27 +3841,30 @@
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="L3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>207</v>
+      </c>
+      <c r="N3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B4">
         <v>307084</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E4">
         <v>138</v>
@@ -3702,27 +3885,30 @@
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="L4" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="M4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>208</v>
+      </c>
+      <c r="N4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B5">
         <v>307092</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E5">
         <v>88</v>
@@ -3743,27 +3929,30 @@
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="L5" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="M5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="N5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B6">
         <v>307080</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E6">
         <v>78</v>
@@ -3784,27 +3973,30 @@
         <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="L6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="M6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>210</v>
+      </c>
+      <c r="N6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B7">
         <v>307018</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E7">
         <v>178</v>
@@ -3825,27 +4017,30 @@
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="L7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>211</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B8">
         <v>307060</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E8">
         <v>118</v>
@@ -3866,27 +4061,30 @@
         <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="L8" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="M8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>212</v>
+      </c>
+      <c r="N8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B9">
         <v>306999</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E9">
         <v>68</v>
@@ -3907,27 +4105,30 @@
         <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="L9" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="M9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>213</v>
+      </c>
+      <c r="N9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B10">
         <v>307059</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E10">
         <v>88</v>
@@ -3948,27 +4149,30 @@
         <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="L10" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>214</v>
+      </c>
+      <c r="N10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B11">
         <v>307015</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E11">
         <v>52</v>
@@ -3989,27 +4193,30 @@
         <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="L11" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="M11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>215</v>
+      </c>
+      <c r="N11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B12">
         <v>307062</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E12">
         <v>78</v>
@@ -4030,13 +4237,16 @@
         <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="L12" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="M12" t="s">
-        <v>207</v>
+        <v>216</v>
+      </c>
+      <c r="N12" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4046,13 +4256,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4092,19 +4302,22 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B2">
         <v>307051</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="E2">
         <v>40</v>
@@ -4125,27 +4338,30 @@
         <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="L2" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="M2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>237</v>
+      </c>
+      <c r="N2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B3">
         <v>307050</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E3">
         <v>40</v>
@@ -4166,27 +4382,30 @@
         <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="L3" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="M3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>238</v>
+      </c>
+      <c r="N3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B4">
         <v>306985</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E4">
         <v>40</v>
@@ -4207,27 +4426,30 @@
         <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="L4" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="M4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>239</v>
+      </c>
+      <c r="N4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B5">
         <v>306996</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -4248,27 +4470,30 @@
         <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="L5" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="M5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>240</v>
+      </c>
+      <c r="N5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B6">
         <v>307044</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -4289,13 +4514,16 @@
         <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="L6" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="M6" t="s">
-        <v>232</v>
+        <v>241</v>
+      </c>
+      <c r="N6" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4305,13 +4533,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4351,19 +4579,22 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B2">
         <v>307081</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E2">
         <v>288</v>
@@ -4384,27 +4615,30 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="L2" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="M2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>267</v>
+      </c>
+      <c r="N2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B3">
         <v>307076</v>
       </c>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E3">
         <v>208</v>
@@ -4425,27 +4659,30 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="L3" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>268</v>
+      </c>
+      <c r="N3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B4">
         <v>307042</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E4">
         <v>178</v>
@@ -4466,27 +4703,30 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="L4" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="M4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>269</v>
+      </c>
+      <c r="N4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B5">
         <v>307068</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E5">
         <v>178</v>
@@ -4507,27 +4747,30 @@
         <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="L5" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>270</v>
+      </c>
+      <c r="N5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B6">
         <v>306997</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E6">
         <v>428</v>
@@ -4548,27 +4791,30 @@
         <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="L6" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="M6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>271</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B7">
         <v>307067</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E7">
         <v>128</v>
@@ -4589,13 +4835,16 @@
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="L7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="M7" t="s">
-        <v>263</v>
+        <v>272</v>
+      </c>
+      <c r="N7" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4605,13 +4854,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4651,19 +4900,22 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B2">
         <v>307077</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="E2">
         <v>178</v>
@@ -4684,27 +4936,30 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L2" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="M2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>302</v>
+      </c>
+      <c r="N2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B3">
         <v>307078</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="E3">
         <v>148</v>
@@ -4725,27 +4980,30 @@
         <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L3" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="M3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>303</v>
+      </c>
+      <c r="N3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B4">
         <v>306989</v>
       </c>
       <c r="C4" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="E4">
         <v>168</v>
@@ -4766,27 +5024,30 @@
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L4" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="M4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>304</v>
+      </c>
+      <c r="N4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B5">
         <v>307073</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="D5" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E5">
         <v>148</v>
@@ -4807,27 +5068,30 @@
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L5" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="M5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>305</v>
+      </c>
+      <c r="N5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B6">
         <v>307030</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D6" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="E6">
         <v>128</v>
@@ -4848,27 +5112,30 @@
         <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L6" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="M6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>306</v>
+      </c>
+      <c r="N6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B7">
         <v>307005</v>
       </c>
       <c r="C7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="D7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="E7">
         <v>148</v>
@@ -4889,27 +5156,30 @@
         <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="M7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>307</v>
+      </c>
+      <c r="N7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B8">
         <v>307071</v>
       </c>
       <c r="C8" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D8" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E8">
         <v>168</v>
@@ -4930,13 +5200,16 @@
         <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L8" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="M8" t="s">
-        <v>299</v>
+        <v>308</v>
+      </c>
+      <c r="N8" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/sample data/Sample EU Supreme Products for the Week of September 15 2022 (Week 4 of FW22) - Sheets.xlsx
+++ b/sample data/Sample EU Supreme Products for the Week of September 15 2022 (Week 4 of FW22) - Sheets.xlsx
@@ -7,24 +7,24 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Bags_df" sheetId="1" r:id="rId1"/>
-    <sheet name="Skate_df" sheetId="2" r:id="rId2"/>
-    <sheet name="Shirts_df" sheetId="3" r:id="rId3"/>
-    <sheet name="Pants_df" sheetId="4" r:id="rId4"/>
-    <sheet name="Shorts_df" sheetId="5" r:id="rId5"/>
-    <sheet name="Tops_Sweaters_df" sheetId="6" r:id="rId6"/>
-    <sheet name="T_Shirts_df" sheetId="7" r:id="rId7"/>
-    <sheet name="Jackets_df" sheetId="8" r:id="rId8"/>
-    <sheet name="Sweatshirts_df" sheetId="9" r:id="rId9"/>
-    <sheet name="Hats_df" sheetId="10" r:id="rId10"/>
-    <sheet name="Accessories_df" sheetId="11" r:id="rId11"/>
+    <sheet name="Bags" sheetId="1" r:id="rId1"/>
+    <sheet name="Skate" sheetId="2" r:id="rId2"/>
+    <sheet name="Shirts" sheetId="3" r:id="rId3"/>
+    <sheet name="Pants" sheetId="4" r:id="rId4"/>
+    <sheet name="Shorts" sheetId="5" r:id="rId5"/>
+    <sheet name="Tops_Sweaters" sheetId="6" r:id="rId6"/>
+    <sheet name="T_Shirts" sheetId="7" r:id="rId7"/>
+    <sheet name="Jackets" sheetId="8" r:id="rId8"/>
+    <sheet name="Sweatshirts" sheetId="9" r:id="rId9"/>
+    <sheet name="Hats" sheetId="10" r:id="rId10"/>
+    <sheet name="Accessories" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="448">
   <si>
     <t>Name</t>
   </si>
@@ -68,6 +68,9 @@
     <t>Sizes</t>
   </si>
   <si>
+    <t>Stock Levels</t>
+  </si>
+  <si>
     <t>Backpack</t>
   </si>
   <si>
@@ -164,6 +167,24 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>0, 'END OF STOCK FOR Silver', 0, 'END OF STOCK FOR Red', 1, 'END OF STOCK FOR Olive', 0, 'END OF STOCK FOR Black'</t>
+  </si>
+  <si>
+    <t>0, 'END OF STOCK FOR Red', 0, 'END OF STOCK FOR Silver', 1, 'END OF STOCK FOR Black', 1, 'END OF STOCK FOR Olive'</t>
+  </si>
+  <si>
+    <t>0, 'END OF STOCK FOR Black', 0, 'END OF STOCK FOR Red', 0, 'END OF STOCK FOR Olive', 0, 'END OF STOCK FOR Silver'</t>
+  </si>
+  <si>
+    <t>0, 'END OF STOCK FOR Olive', 0, 'END OF STOCK FOR Silver', 0, 'END OF STOCK FOR Black', 0, 'END OF STOCK FOR Red'</t>
+  </si>
+  <si>
+    <t>0, 'END OF STOCK FOR Silver', 0, 'END OF STOCK FOR Black', 0, 'END OF STOCK FOR Olive', 0, 'END OF STOCK FOR Red'</t>
+  </si>
+  <si>
+    <t>1, 'END OF STOCK FOR Black', 0, 'END OF STOCK FOR Red', 1, 'END OF STOCK FOR Silver', 1, 'END OF STOCK FOR Olive'</t>
+  </si>
+  <si>
     <t>Supreme®/Independent® Truck</t>
   </si>
   <si>
@@ -239,6 +260,18 @@
     <t>8 1/8</t>
   </si>
   <si>
+    <t>1, 1, 1, 'END OF STOCK FOR Silver'</t>
+  </si>
+  <si>
+    <t>1, 'END OF STOCK FOR Swirl 54mm', 1, 'END OF STOCK FOR White 52mm'</t>
+  </si>
+  <si>
+    <t>1, 'END OF STOCK FOR White - 8.5" x 32"'</t>
+  </si>
+  <si>
+    <t>1, 'END OF STOCK FOR Green - 8.125" x 32" ', 1, 'END OF STOCK FOR Black - 8.25" x 32" ', 1, 'END OF STOCK FOR White - 8" x 31.875" '</t>
+  </si>
+  <si>
     <t>Heavy Flannel Shirt</t>
   </si>
   <si>
@@ -302,6 +335,18 @@
     <t>Small,Medium,Large,XLarge</t>
   </si>
   <si>
+    <t>1, 1, 1, 0, 'END OF STOCK FOR Dark Plum', 1, 1, 1, 1, 'END OF STOCK FOR Black', 1, 1, 1, 1, 'END OF STOCK FOR Gold'</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 0, 'END OF STOCK FOR Black', 1, 1, 1, 1, 'END OF STOCK FOR Light Brown'</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 'END OF STOCK FOR Denim', 1, 1, 1, 1, 'END OF STOCK FOR Red', 0, 0, 1, 0, 'END OF STOCK FOR Grey', 1, 1, 1, 0, 'END OF STOCK FOR Purple', 0, 0, 0, 0, 'END OF STOCK FOR Olive', 0, 0, 0, 0, 'END OF STOCK FOR Natural', 1, 1, 1, 1, 'END OF STOCK FOR Black'</t>
+  </si>
+  <si>
+    <t>0, 1, 1, 0, 'END OF STOCK FOR Pink', 1, 1, 1, 0, 'END OF STOCK FOR Black', 0, 1, 1, 1, 'END OF STOCK FOR Rust'</t>
+  </si>
+  <si>
     <t>Supreme®/Nike® ACG Belted Denim Pant</t>
   </si>
   <si>
@@ -476,6 +521,39 @@
     <t>Small,Medium,Large,XLarge,XXL</t>
   </si>
   <si>
+    <t>0, 0, 0, 0, 'END OF STOCK FOR Washed Blue', 0, 0, 0, 0, 'END OF STOCK FOR Gold Snakeskin', 0, 0, 0, 0, 'END OF STOCK FOR Black'</t>
+  </si>
+  <si>
+    <t>0, 1, 1, 1, 0, 'END OF STOCK FOR Burnt Orange', 1, 1, 1, 0, 0, 'END OF STOCK FOR Black', 1, 0, 1, 1, 1, 'END OF STOCK FOR Olive', 1, 1, 1, 1, 0, 'END OF STOCK FOR Slate', 1, 1, 1, 1, 0, 'END OF STOCK FOR Brown'</t>
+  </si>
+  <si>
+    <t>0, 0, 1, 1, 0, 'END OF STOCK FOR Reverse Indigo', 1, 1, 0, 1, 0, 'END OF STOCK FOR Brown'</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 'END OF STOCK FOR Brown', 0, 0, 0, 0, 0, 'END OF STOCK FOR Red', 0, 0, 0, 0, 0, 'END OF STOCK FOR Black'</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 'END OF STOCK FOR Burgundy', 0, 0, 0, 0, 0, 'END OF STOCK FOR Olive', 0, 0, 0, 0, 0, 'END OF STOCK FOR Black'</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 0, 0, 'END OF STOCK FOR Branch Woodland Camo', 0, 0, 0, 0, 0, 'END OF STOCK FOR Black', 0, 0, 0, 0, 0, 'END OF STOCK FOR White', 0, 0, 0, 0, 0, 'END OF STOCK FOR Brown'</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 0, 0, 'END OF STOCK FOR Heather Grey', 1, 0, 1, 0, 0, 'END OF STOCK FOR Black', 1, 1, 1, 0, 0, 'END OF STOCK FOR Green'</t>
+  </si>
+  <si>
+    <t>1, 0, 1, 0, 0, 'END OF STOCK FOR Dyed Rust', 1, 1, 1, 1, 1, 'END OF STOCK FOR Washed Blue', 1, 1, 1, 1, 1, 'END OF STOCK FOR Washed Black', 0, 0, 0, 0, 0, 'END OF STOCK FOR Natural'</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 0, 'END OF STOCK FOR Rigid Indigo'</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 0, 'END OF STOCK FOR Stone Washed Indigo'</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 'END OF STOCK FOR Washed Black'</t>
+  </si>
+  <si>
     <t>Supreme®/Nike® ACG Nylon Trail Short</t>
   </si>
   <si>
@@ -509,6 +587,12 @@
     <t>Ash Grey,Light Olive,Bright Orange,Raspberry,Dark Brown,Light Slate,Black</t>
   </si>
   <si>
+    <t>0, 0, 0, 0, 'END OF STOCK FOR Black', 0, 0, 0, 0, 'END OF STOCK FOR Gold Snakeskin', 0, 0, 0, 0, 'END OF STOCK FOR Mint Snakeskin'</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 0, 0, 'END OF STOCK FOR Ash Grey', 1, 1, 1, 1, 1, 'END OF STOCK FOR Light Olive', 1, 1, 1, 1, 0, 'END OF STOCK FOR Bright Orange', 1, 1, 1, 1, 1, 'END OF STOCK FOR Raspberry', 1, 1, 1, 1, 0, 'END OF STOCK FOR Dark Brown', 1, 1, 1, 1, 0, 'END OF STOCK FOR Light Slate', 1, 1, 1, 1, 1, 'END OF STOCK FOR Black'</t>
+  </si>
+  <si>
     <t>Supreme®/Nike® ACG Jersey</t>
   </si>
   <si>
@@ -677,6 +761,39 @@
     <t>Dusty Yellow,Black,White,Dark Olive,Red,Teal</t>
   </si>
   <si>
+    <t>0, 0, 0, 0, 'END OF STOCK FOR Pale Green', 0, 0, 0, 0, 'END OF STOCK FOR Black', 0, 0, 0, 0, 'END OF STOCK FOR Dusty Blue'</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 'END OF STOCK FOR Orange', 0, 0, 0, 0, 'END OF STOCK FOR White', 1, 1, 1, 1, 'END OF STOCK FOR Green', 0, 0, 0, 0, 'END OF STOCK FOR Black', 0, 1, 0, 0, 'END OF STOCK FOR Blue'</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 'END OF STOCK FOR Multicolor', 0, 0, 1, 0, 'END OF STOCK FOR Black'</t>
+  </si>
+  <si>
+    <t>0, 1, 1, 1, 1, 'END OF STOCK FOR Washed Navy', 1, 1, 1, 1, 1, 'END OF STOCK FOR Olive', 1, 1, 1, 1, 1, 'END OF STOCK FOR Black', 1, 1, 1, 1, 0, 'END OF STOCK FOR Pale Pink'</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 'END OF STOCK FOR Neon Green', 1, 1, 1, 1, 1, 'END OF STOCK FOR Grey', 1, 1, 1, 1, 1, 'END OF STOCK FOR Red', 1, 1, 1, 1, 1, 'END OF STOCK FOR White'</t>
+  </si>
+  <si>
+    <t>1, 0, 0, 0, 'END OF STOCK FOR Olive', 1, 1, 1, 1, 'END OF STOCK FOR Black', 1, 0, 1, 1, 'END OF STOCK FOR Plum', 1, 1, 1, 1, 'END OF STOCK FOR Light Brown'</t>
+  </si>
+  <si>
+    <t>0, 0, 1, 1, 0, 'END OF STOCK FOR Black', 0, 0, 0, 0, 0, 'END OF STOCK FOR White', 0, 1, 1, 1, 0, 'END OF STOCK FOR Brown'</t>
+  </si>
+  <si>
+    <t>0, 1, 1, 1, 0, 'END OF STOCK FOR Bright Pink', 1, 1, 1, 1, 1, 'END OF STOCK FOR White', 1, 1, 1, 1, 0, 'END OF STOCK FOR Dark Green', 1, 1, 1, 1, 1, 'END OF STOCK FOR Black', 1, 1, 1, 1, 1, 'END OF STOCK FOR Dark Tan', 0, 1, 1, 1, 0, 'END OF STOCK FOR Dark Navy'</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 0, 'END OF STOCK FOR Green', 1, 1, 1, 1, 1, 'END OF STOCK FOR Black'</t>
+  </si>
+  <si>
+    <t>0, 1, 1, 1, 0, 'END OF STOCK FOR Navy', 1, 1, 1, 1, 1, 'END OF STOCK FOR Branch Woodland Camo', 0, 1, 1, 1, 0, 'END OF STOCK FOR Ash Grey', 0, 1, 1, 1, 0, 'END OF STOCK FOR Black', 1, 1, 1, 1, 0, 'END OF STOCK FOR Magenta', 0, 1, 1, 1, 0, 'END OF STOCK FOR White', 1, 1, 1, 1, 0, 'END OF STOCK FOR Brown', 1, 1, 1, 1, 0, 'END OF STOCK FOR Teal'</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 1, 0, 'END OF STOCK FOR Dusty Yellow', 0, 1, 1, 1, 1, 'END OF STOCK FOR Black', 0, 1, 1, 1, 1, 'END OF STOCK FOR White', 0, 1, 1, 1, 0, 'END OF STOCK FOR Dark Olive', 0, 1, 1, 1, 1, 'END OF STOCK FOR Red', 0, 1, 1, 1, 1, 'END OF STOCK FOR Teal'</t>
+  </si>
+  <si>
     <t>Trash Tee</t>
   </si>
   <si>
@@ -752,6 +869,21 @@
     <t>Black,Dusty Blue,Brown,Light Pink,White</t>
   </si>
   <si>
+    <t>1, 1, 1, 0, 0, 'END OF STOCK FOR Black', 1, 1, 1, 1, 0, 'END OF STOCK FOR Eggplant', 1, 1, 1, 1, 0, 'END OF STOCK FOR Heather Grey', 1, 1, 1, 1, 0, 'END OF STOCK FOR Orange', 1, 1, 1, 1, 0, 'END OF STOCK FOR White', 1, 1, 1, 1, 0, 'END OF STOCK FOR Light Olive'</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 'END OF STOCK FOR Purple', 0, 1, 1, 1, 0, 'END OF STOCK FOR White', 0, 1, 1, 1, 0, 'END OF STOCK FOR Green', 0, 1, 1, 0, 0, 'END OF STOCK FOR Red', 0, 1, 1, 1, 0, 'END OF STOCK FOR Black', 0, 1, 1, 1, 0, 'END OF STOCK FOR Brown'</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 0, 'END OF STOCK FOR Black', 1, 1, 1, 1, 0, 'END OF STOCK FOR Green', 1, 1, 1, 1, 0, 'END OF STOCK FOR Brown', 0, 1, 1, 1, 1, 'END OF STOCK FOR Light Pink', 1, 1, 1, 1, 1, 'END OF STOCK FOR Eggplant', 1, 1, 1, 1, 1, 'END OF STOCK FOR White'</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 'END OF STOCK FOR Green', 1, 1, 1, 1, 1, 'END OF STOCK FOR White', 1, 1, 1, 1, 0, 'END OF STOCK FOR Brown', 1, 1, 1, 1, 1, 'END OF STOCK FOR Magenta', 1, 1, 1, 1, 0, 'END OF STOCK FOR Black', 1, 1, 1, 1, 1, 'END OF STOCK FOR Heather Grey'</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 0, 'END OF STOCK FOR Black', 1, 1, 1, 1, 0, 'END OF STOCK FOR Dusty Blue', 1, 1, 1, 1, 0, 'END OF STOCK FOR Brown', 1, 1, 1, 1, 1, 'END OF STOCK FOR Light Pink', 1, 1, 1, 1, 1, 'END OF STOCK FOR White'</t>
+  </si>
+  <si>
     <t>Supreme®/Nike® ACG Denim Pullover</t>
   </si>
   <si>
@@ -845,6 +977,24 @@
     <t>Burgundy,Black,Olive</t>
   </si>
   <si>
+    <t>0, 0, 0, 0, 'END OF STOCK FOR Gold Snakeskin', 0, 0, 0, 0, 'END OF STOCK FOR Washed Blue', 0, 0, 0, 0, 'END OF STOCK FOR Black'</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 'END OF STOCK FOR Mint Snakeskin', 0, 0, 0, 0, 'END OF STOCK FOR Black', 0, 0, 0, 0, 'END OF STOCK FOR Gold Snakeskin'</t>
+  </si>
+  <si>
+    <t>0, 1, 1, 1, 0, 'END OF STOCK FOR Black', 0, 0, 1, 1, 0, 'END OF STOCK FOR Red', 1, 0, 0, 1, 0, 'END OF STOCK FOR Brown'</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 'END OF STOCK FOR Sulfur', 1, 1, 1, 0, 'END OF STOCK FOR Black', 1, 1, 1, 0, 'END OF STOCK FOR Dusty Lilac'</t>
+  </si>
+  <si>
+    <t>0, 1, 1, 0, 'END OF STOCK FOR Desert Camo', 1, 1, 1, 1, 'END OF STOCK FOR Black', 1, 1, 1, 1, 'END OF STOCK FOR Yellow'</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 'END OF STOCK FOR Burgundy', 0, 0, 0, 0, 0, 'END OF STOCK FOR Black', 0, 0, 0, 0, 0, 'END OF STOCK FOR Olive'</t>
+  </si>
+  <si>
     <t>Fire Zip Up Hooded Sweatshirt</t>
   </si>
   <si>
@@ -953,6 +1103,27 @@
     <t>Brown,Ash Grey,Royal,Black</t>
   </si>
   <si>
+    <t>1, 1, 1, 1, 1, 'END OF STOCK FOR Multicolor'</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 'END OF STOCK FOR Heather Grey', 0, 1, 1, 1, 0, 'END OF STOCK FOR Washed Royal', 1, 1, 1, 1, 1, 'END OF STOCK FOR Bright Orange', 1, 1, 1, 1, 1, 'END OF STOCK FOR White', 1, 1, 1, 1, 1, 'END OF STOCK FOR Pale Yellow', 1, 1, 1, 1, 1, 'END OF STOCK FOR Black', 1, 1, 1, 1, 1, 'END OF STOCK FOR Light Olive'</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 'END OF STOCK FOR Black', 1, 1, 1, 1, 0, 'END OF STOCK FOR Green', 1, 1, 1, 1, 1, 'END OF STOCK FOR Heather Grey'</t>
+  </si>
+  <si>
+    <t>1, 0, 1, 0, 0, 'END OF STOCK FOR Bright Gold', 1, 1, 1, 1, 1, 'END OF STOCK FOR Dark Brown', 0, 1, 1, 1, 0, 'END OF STOCK FOR Red', 0, 0, 0, 0, 0, 'END OF STOCK FOR Navy', 1, 1, 1, 1, 1, 'END OF STOCK FOR Ash Grey', 1, 1, 1, 1, 1, 'END OF STOCK FOR Black', 1, 1, 1, 1, 0, 'END OF STOCK FOR Dark Aqua'</t>
+  </si>
+  <si>
+    <t>0, 1, 1, 1, 0, 'END OF STOCK FOR Black', 1, 1, 1, 1, 1, 'END OF STOCK FOR Raspberry', 0, 0, 1, 1, 0, 'END OF STOCK FOR Ash Grey', 1, 1, 1, 1, 1, 'END OF STOCK FOR Dark Brown', 1, 1, 1, 1, 0, 'END OF STOCK FOR Light Olive', 0, 1, 1, 1, 1, 'END OF STOCK FOR Light Slate', 1, 1, 1, 1, 0, 'END OF STOCK FOR Bright Orange'</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 'END OF STOCK FOR Ash Grey', 1, 1, 1, 1, 1, 'END OF STOCK FOR Burgundy', 1, 1, 1, 1, 1, 'END OF STOCK FOR Woodland Camo', 1, 1, 1, 1, 1, 'END OF STOCK FOR Black', 0, 0, 0, 1, 0, 'END OF STOCK FOR Purple'</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 0, 'END OF STOCK FOR Brown', 1, 1, 1, 1, 1, 'END OF STOCK FOR Ash Grey', 1, 1, 1, 0, 0, 'END OF STOCK FOR Royal', 1, 1, 1, 1, 1, 'END OF STOCK FOR Black'</t>
+  </si>
+  <si>
     <t>Supreme®/Nike® ACG Denim 6-Panel</t>
   </si>
   <si>
@@ -1061,6 +1232,27 @@
     <t>S/M,M/L</t>
   </si>
   <si>
+    <t>0, 'END OF STOCK FOR Gold Snakeskin', 0, 'END OF STOCK FOR Washed Blue', 0, 'END OF STOCK FOR Black'</t>
+  </si>
+  <si>
+    <t>1, 'END OF STOCK FOR Branch Olive Camo', 1, 'END OF STOCK FOR Yellow', 1, 'END OF STOCK FOR Black', 1, 'END OF STOCK FOR Brown', 1, 'END OF STOCK FOR Light Blue'</t>
+  </si>
+  <si>
+    <t>1, 'END OF STOCK FOR Black', 1, 'END OF STOCK FOR Khaki', 1, 'END OF STOCK FOR Red', 1, 'END OF STOCK FOR Teal'</t>
+  </si>
+  <si>
+    <t>1, 'END OF STOCK FOR Green', 0, 'END OF STOCK FOR Black', 0, 'END OF STOCK FOR Red', 0, 'END OF STOCK FOR Brown', 0, 'END OF STOCK FOR Navy', 1, 'END OF STOCK FOR White'</t>
+  </si>
+  <si>
+    <t>1, 1, 'END OF STOCK FOR Red', 1, 1, 'END OF STOCK FOR Pale Blue', 1, 1, 'END OF STOCK FOR Olive', 1, 1, 'END OF STOCK FOR Stone', 1, 1, 'END OF STOCK FOR Black'</t>
+  </si>
+  <si>
+    <t>1, 'END OF STOCK FOR Navy', 1, 'END OF STOCK FOR Brown', 1, 'END OF STOCK FOR Green', 1, 'END OF STOCK FOR Grey', 1, 'END OF STOCK FOR Black', 1, 'END OF STOCK FOR Light Blue'</t>
+  </si>
+  <si>
+    <t>1, 'END OF STOCK FOR Brown', 1, 'END OF STOCK FOR Yellow', 1, 'END OF STOCK FOR Light Blue', 1, 'END OF STOCK FOR Black', 1, 'END OF STOCK FOR Olive'</t>
+  </si>
+  <si>
     <t>Supreme®/Pat McGrath Labs &lt;br&gt;Nail Polish (Set of 3)</t>
   </si>
   <si>
@@ -1158,6 +1350,24 @@
   </si>
   <si>
     <t>Red,White,Black</t>
+  </si>
+  <si>
+    <t>1, 'END OF STOCK FOR Multicolor'</t>
+  </si>
+  <si>
+    <t>1, 'END OF STOCK FOR Black', 1, 'END OF STOCK FOR Red'</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 'END OF STOCK FOR White', 1, 1, 1, 1, 1, 'END OF STOCK FOR Black'</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 0, 'END OF STOCK FOR Red', 1, 1, 1, 1, 0, 'END OF STOCK FOR Black', 1, 1, 1, 1, 1, 'END OF STOCK FOR White'</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 'END OF STOCK FOR Red', 1, 1, 1, 1, 1, 'END OF STOCK FOR White', 1, 1, 1, 1, 1, 'END OF STOCK FOR Black'</t>
+  </si>
+  <si>
+    <t>1, 'END OF STOCK FOR White', 1, 'END OF STOCK FOR Black'</t>
   </si>
 </sst>
 </file>
@@ -1515,13 +1725,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1564,19 +1774,22 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>307053</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>138</v>
@@ -1597,30 +1810,33 @@
         <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>307009</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>128</v>
@@ -1641,30 +1857,33 @@
         <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>46</v>
+      </c>
+      <c r="O3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>307037</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>128</v>
@@ -1685,30 +1904,33 @@
         <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>307049</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>46</v>
@@ -1729,30 +1951,33 @@
         <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>307022</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>42</v>
@@ -1773,30 +1998,33 @@
         <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>46</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>307004</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>48</v>
@@ -1817,16 +2045,19 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1836,13 +2067,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1885,19 +2116,22 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="B2">
         <v>307083</v>
       </c>
       <c r="C2" t="s">
-        <v>316</v>
+        <v>373</v>
       </c>
       <c r="D2" t="s">
-        <v>323</v>
+        <v>380</v>
       </c>
       <c r="E2">
         <v>42</v>
@@ -1918,30 +2152,33 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="L2" t="s">
-        <v>331</v>
+        <v>388</v>
       </c>
       <c r="M2" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="B3">
         <v>307089</v>
       </c>
       <c r="C3" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="D3" t="s">
-        <v>324</v>
+        <v>381</v>
       </c>
       <c r="E3">
         <v>46</v>
@@ -1962,30 +2199,33 @@
         <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="L3" t="s">
-        <v>332</v>
+        <v>389</v>
       </c>
       <c r="M3" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>46</v>
+      </c>
+      <c r="O3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="B4">
         <v>307088</v>
       </c>
       <c r="C4" t="s">
-        <v>318</v>
+        <v>375</v>
       </c>
       <c r="D4" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -2006,30 +2246,33 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="L4" t="s">
-        <v>333</v>
+        <v>390</v>
       </c>
       <c r="M4" t="s">
-        <v>339</v>
+        <v>396</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>312</v>
+        <v>369</v>
       </c>
       <c r="B5">
         <v>307000</v>
       </c>
       <c r="C5" t="s">
-        <v>319</v>
+        <v>376</v>
       </c>
       <c r="D5" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="E5">
         <v>46</v>
@@ -2050,30 +2293,33 @@
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="L5" t="s">
-        <v>334</v>
+        <v>391</v>
       </c>
       <c r="M5" t="s">
-        <v>340</v>
+        <v>397</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>313</v>
+        <v>370</v>
       </c>
       <c r="B6">
         <v>307075</v>
       </c>
       <c r="C6" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="D6" t="s">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="E6">
         <v>54</v>
@@ -2094,30 +2340,33 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="L6" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="M6" t="s">
-        <v>341</v>
+        <v>398</v>
       </c>
       <c r="N6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>401</v>
+      </c>
+      <c r="O6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="B7">
         <v>306986</v>
       </c>
       <c r="C7" t="s">
-        <v>321</v>
+        <v>378</v>
       </c>
       <c r="D7" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="E7">
         <v>44</v>
@@ -2138,30 +2387,33 @@
         <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="L7" t="s">
-        <v>336</v>
+        <v>393</v>
       </c>
       <c r="M7" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>315</v>
+        <v>372</v>
       </c>
       <c r="B8">
         <v>306981</v>
       </c>
       <c r="C8" t="s">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="D8" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="E8">
         <v>34</v>
@@ -2182,16 +2434,19 @@
         <v>52</v>
       </c>
       <c r="K8" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="L8" t="s">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="M8" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="O8" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -2201,13 +2456,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2250,19 +2505,22 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="B2">
         <v>307091</v>
       </c>
       <c r="C2" t="s">
-        <v>352</v>
+        <v>416</v>
       </c>
       <c r="D2" t="s">
-        <v>359</v>
+        <v>423</v>
       </c>
       <c r="E2">
         <v>88</v>
@@ -2283,30 +2541,33 @@
         <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="L2" t="s">
-        <v>367</v>
+        <v>431</v>
       </c>
       <c r="M2" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>410</v>
       </c>
       <c r="B3">
         <v>307002</v>
       </c>
       <c r="C3" t="s">
-        <v>353</v>
+        <v>417</v>
       </c>
       <c r="D3" t="s">
-        <v>360</v>
+        <v>424</v>
       </c>
       <c r="E3">
         <v>48</v>
@@ -2327,30 +2588,33 @@
         <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="L3" t="s">
-        <v>368</v>
+        <v>432</v>
       </c>
       <c r="M3" t="s">
-        <v>374</v>
+        <v>438</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>46</v>
+      </c>
+      <c r="O3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>411</v>
       </c>
       <c r="B4">
         <v>307007</v>
       </c>
       <c r="C4" t="s">
-        <v>354</v>
+        <v>418</v>
       </c>
       <c r="D4" t="s">
-        <v>361</v>
+        <v>425</v>
       </c>
       <c r="E4">
         <v>28</v>
@@ -2371,30 +2635,33 @@
         <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="L4" t="s">
-        <v>369</v>
+        <v>433</v>
       </c>
       <c r="M4" t="s">
-        <v>375</v>
+        <v>439</v>
       </c>
       <c r="N4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="O4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>412</v>
       </c>
       <c r="B5">
         <v>306994</v>
       </c>
       <c r="C5" t="s">
-        <v>355</v>
+        <v>419</v>
       </c>
       <c r="D5" t="s">
-        <v>362</v>
+        <v>426</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -2415,30 +2682,33 @@
         <v>62</v>
       </c>
       <c r="K5" t="s">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="L5" t="s">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="M5" t="s">
-        <v>376</v>
+        <v>440</v>
       </c>
       <c r="N5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="O5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>413</v>
       </c>
       <c r="B6">
         <v>307041</v>
       </c>
       <c r="C6" t="s">
-        <v>356</v>
+        <v>420</v>
       </c>
       <c r="D6" t="s">
-        <v>363</v>
+        <v>427</v>
       </c>
       <c r="E6">
         <v>36</v>
@@ -2459,30 +2729,33 @@
         <v>63</v>
       </c>
       <c r="K6" t="s">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="L6" t="s">
-        <v>371</v>
+        <v>435</v>
       </c>
       <c r="M6" t="s">
-        <v>375</v>
+        <v>439</v>
       </c>
       <c r="N6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="O6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>414</v>
       </c>
       <c r="B7">
         <v>307043</v>
       </c>
       <c r="C7" t="s">
-        <v>357</v>
+        <v>421</v>
       </c>
       <c r="D7" t="s">
-        <v>364</v>
+        <v>428</v>
       </c>
       <c r="E7">
         <v>28</v>
@@ -2503,30 +2776,33 @@
         <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="L7" t="s">
-        <v>372</v>
+        <v>436</v>
       </c>
       <c r="M7" t="s">
-        <v>377</v>
+        <v>441</v>
       </c>
       <c r="N7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="O7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>415</v>
       </c>
       <c r="B8">
         <v>307046</v>
       </c>
       <c r="C8" t="s">
-        <v>358</v>
+        <v>422</v>
       </c>
       <c r="D8" t="s">
-        <v>365</v>
+        <v>429</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -2547,16 +2823,19 @@
         <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="L8" t="s">
-        <v>373</v>
+        <v>437</v>
       </c>
       <c r="M8" t="s">
-        <v>375</v>
+        <v>439</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="O8" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -2566,13 +2845,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2615,19 +2894,22 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>307023</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E2">
         <v>64</v>
@@ -2648,30 +2930,33 @@
         <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>74</v>
+      </c>
+      <c r="O2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B3">
         <v>307054</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>32</v>
@@ -2692,30 +2977,33 @@
         <v>67</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>75</v>
+      </c>
+      <c r="O3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>307011</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>58</v>
@@ -2736,30 +3024,33 @@
         <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>76</v>
+      </c>
+      <c r="O4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>307039</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>58</v>
@@ -2780,16 +3071,19 @@
         <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2799,13 +3093,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2848,19 +3142,22 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>307085</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <v>138</v>
@@ -2881,30 +3178,33 @@
         <v>13</v>
       </c>
       <c r="K2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
         <v>83</v>
-      </c>
-      <c r="L2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" t="s">
-        <v>87</v>
-      </c>
-      <c r="N2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>72</v>
       </c>
       <c r="B3">
         <v>307070</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E3">
         <v>128</v>
@@ -2925,30 +3225,33 @@
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="N3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>102</v>
+      </c>
+      <c r="O3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>306984</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>110</v>
@@ -2969,27 +3272,30 @@
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="N4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>102</v>
+      </c>
+      <c r="O4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B5">
         <v>307034</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>110</v>
@@ -3010,16 +3316,19 @@
         <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="L5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s">
-        <v>91</v>
+        <v>102</v>
+      </c>
+      <c r="O5" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3029,13 +3338,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3078,19 +3387,22 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B2">
         <v>307090</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E2">
         <v>178</v>
@@ -3111,30 +3423,33 @@
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="L2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="M2" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>102</v>
+      </c>
+      <c r="O2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B3">
         <v>307079</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E3">
         <v>128</v>
@@ -3155,30 +3470,33 @@
         <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="L3" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="M3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="N3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>163</v>
+      </c>
+      <c r="O3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B4">
         <v>307074</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E4">
         <v>158</v>
@@ -3199,30 +3517,33 @@
         <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="L4" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="M4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="N4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>163</v>
+      </c>
+      <c r="O4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B5">
         <v>307010</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E5">
         <v>158</v>
@@ -3243,30 +3564,33 @@
         <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="L5" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="M5" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="N5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>163</v>
+      </c>
+      <c r="O5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>307056</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="E6">
         <v>118</v>
@@ -3287,30 +3611,33 @@
         <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="L6" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="M6" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="N6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="O6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>307064</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E7">
         <v>148</v>
@@ -3331,30 +3658,33 @@
         <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="L7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="M7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="N7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>163</v>
+      </c>
+      <c r="O7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B8">
         <v>307031</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E8">
         <v>158</v>
@@ -3375,30 +3705,33 @@
         <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="L8" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="M8" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="N8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="O8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B9">
         <v>307026</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E9">
         <v>148</v>
@@ -3419,30 +3752,33 @@
         <v>42</v>
       </c>
       <c r="K9" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="L9" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="M9" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="N9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>163</v>
+      </c>
+      <c r="O9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B10">
         <v>307006</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E10">
         <v>158</v>
@@ -3463,30 +3799,33 @@
         <v>43</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="M10" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="N10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>163</v>
+      </c>
+      <c r="O10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B11">
         <v>307014</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="E11">
         <v>168</v>
@@ -3507,30 +3846,33 @@
         <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="N11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>163</v>
+      </c>
+      <c r="O11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B12">
         <v>306998</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E12">
         <v>148</v>
@@ -3551,16 +3893,19 @@
         <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="N12" t="s">
-        <v>148</v>
+        <v>163</v>
+      </c>
+      <c r="O12" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3570,13 +3915,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3619,19 +3964,22 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="B2">
         <v>307087</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="E2">
         <v>118</v>
@@ -3652,30 +4000,33 @@
         <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="L2" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="M2" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>102</v>
+      </c>
+      <c r="O2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="B3">
         <v>307016</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="E3">
         <v>110</v>
@@ -3696,16 +4047,19 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="L3" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="M3" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="N3" t="s">
-        <v>149</v>
+        <v>164</v>
+      </c>
+      <c r="O3" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3715,13 +4069,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3764,19 +4118,22 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="B2">
         <v>307086</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="E2">
         <v>98</v>
@@ -3797,30 +4154,33 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="L2" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="M2" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>102</v>
+      </c>
+      <c r="O2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="B3">
         <v>307082</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="E3">
         <v>42</v>
@@ -3841,30 +4201,33 @@
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="L3" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="M3" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="N3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>102</v>
+      </c>
+      <c r="O3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="B4">
         <v>307084</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="E4">
         <v>138</v>
@@ -3885,30 +4248,33 @@
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="L4" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="M4" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="N4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>102</v>
+      </c>
+      <c r="O4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="B5">
         <v>307092</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="E5">
         <v>88</v>
@@ -3929,30 +4295,33 @@
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="L5" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="M5" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="N5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="O5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="B6">
         <v>307080</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="E6">
         <v>78</v>
@@ -3973,30 +4342,33 @@
         <v>25</v>
       </c>
       <c r="K6" t="s">
+        <v>222</v>
+      </c>
+      <c r="L6" t="s">
+        <v>227</v>
+      </c>
+      <c r="M6" t="s">
+        <v>238</v>
+      </c>
+      <c r="N6" t="s">
+        <v>164</v>
+      </c>
+      <c r="O6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
         <v>194</v>
-      </c>
-      <c r="L6" t="s">
-        <v>199</v>
-      </c>
-      <c r="M6" t="s">
-        <v>210</v>
-      </c>
-      <c r="N6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>166</v>
       </c>
       <c r="B7">
         <v>307018</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="E7">
         <v>178</v>
@@ -4017,30 +4389,33 @@
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="L7" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="M7" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>102</v>
+      </c>
+      <c r="O7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="B8">
         <v>307060</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="E8">
         <v>118</v>
@@ -4061,30 +4436,33 @@
         <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="L8" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="M8" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="N8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="O8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="B9">
         <v>306999</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="E9">
         <v>68</v>
@@ -4105,30 +4483,33 @@
         <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="L9" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="M9" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="O9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="B10">
         <v>307059</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="E10">
         <v>88</v>
@@ -4149,30 +4530,33 @@
         <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="L10" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="M10" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="N10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="O10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="B11">
         <v>307015</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="E11">
         <v>52</v>
@@ -4193,30 +4577,33 @@
         <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="L11" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="M11" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="N11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="O11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="B12">
         <v>307062</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="E12">
         <v>78</v>
@@ -4237,16 +4624,19 @@
         <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="L12" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="M12" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="N12" t="s">
-        <v>149</v>
+        <v>164</v>
+      </c>
+      <c r="O12" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4256,13 +4646,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4305,19 +4695,22 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="B2">
         <v>307051</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="E2">
         <v>40</v>
@@ -4338,30 +4731,33 @@
         <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="L2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="M2" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="N2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="O2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="B3">
         <v>307050</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="E3">
         <v>40</v>
@@ -4382,30 +4778,33 @@
         <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="L3" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="M3" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="N3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="O3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="B4">
         <v>306985</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="E4">
         <v>40</v>
@@ -4426,30 +4825,33 @@
         <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="L4" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="M4" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="N4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="O4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="B5">
         <v>306996</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -4470,30 +4872,33 @@
         <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="L5" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="M5" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="N5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="O5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="B6">
         <v>307044</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -4514,16 +4919,19 @@
         <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="L6" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="M6" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="N6" t="s">
-        <v>149</v>
+        <v>164</v>
+      </c>
+      <c r="O6" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4533,13 +4941,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4582,19 +4990,22 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="B2">
         <v>307081</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="E2">
         <v>288</v>
@@ -4615,30 +5026,33 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="L2" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="M2" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>102</v>
+      </c>
+      <c r="O2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="B3">
         <v>307076</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="E3">
         <v>208</v>
@@ -4659,30 +5073,33 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="L3" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="M3" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="N3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>102</v>
+      </c>
+      <c r="O3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="B4">
         <v>307042</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="E4">
         <v>178</v>
@@ -4703,30 +5120,33 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="L4" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="M4" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="N4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="O4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="B5">
         <v>307068</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="D5" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="E5">
         <v>178</v>
@@ -4747,30 +5167,33 @@
         <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="L5" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="M5" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="N5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>102</v>
+      </c>
+      <c r="O5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="B6">
         <v>306997</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="E6">
         <v>428</v>
@@ -4791,30 +5214,33 @@
         <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="L6" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="M6" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>102</v>
+      </c>
+      <c r="O6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="B7">
         <v>307067</v>
       </c>
       <c r="C7" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="D7" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="E7">
         <v>128</v>
@@ -4835,16 +5261,19 @@
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="L7" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="M7" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="N7" t="s">
-        <v>149</v>
+        <v>164</v>
+      </c>
+      <c r="O7" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -4854,13 +5283,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4903,19 +5332,22 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="B2">
         <v>307077</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="D2" t="s">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c r="E2">
         <v>178</v>
@@ -4936,30 +5368,33 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="L2" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="M2" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="N2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="O2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
       <c r="B3">
         <v>307078</v>
       </c>
       <c r="C3" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="D3" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="E3">
         <v>148</v>
@@ -4980,30 +5415,33 @@
         <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="L3" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="M3" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="N3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="O3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="B4">
         <v>306989</v>
       </c>
       <c r="C4" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="D4" t="s">
-        <v>289</v>
+        <v>339</v>
       </c>
       <c r="E4">
         <v>168</v>
@@ -5024,30 +5462,33 @@
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="L4" t="s">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="M4" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="N4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="O4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="B5">
         <v>307073</v>
       </c>
       <c r="C5" t="s">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="D5" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="E5">
         <v>148</v>
@@ -5068,30 +5509,33 @@
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="L5" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="M5" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="N5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="O5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="B6">
         <v>307030</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="D6" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="E6">
         <v>128</v>
@@ -5112,30 +5556,33 @@
         <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="L6" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="M6" t="s">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="N6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="O6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="B7">
         <v>307005</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="D7" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="E7">
         <v>148</v>
@@ -5156,30 +5603,33 @@
         <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="L7" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M7" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="N7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="O7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="B8">
         <v>307071</v>
       </c>
       <c r="C8" t="s">
-        <v>286</v>
+        <v>336</v>
       </c>
       <c r="D8" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="E8">
         <v>168</v>
@@ -5200,16 +5650,19 @@
         <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="L8" t="s">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="M8" t="s">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="N8" t="s">
-        <v>149</v>
+        <v>164</v>
+      </c>
+      <c r="O8" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/sample data/Sample EU Supreme Products for the Week of September 15 2022 (Week 4 of FW22) - Sheets.xlsx
+++ b/sample data/Sample EU Supreme Products for the Week of September 15 2022 (Week 4 of FW22) - Sheets.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huymai/Desktop/supreme-products-scraper/sample data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F483ABE-0482-9341-9112-A142FAEF090A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bags" sheetId="1" r:id="rId1"/>
@@ -13,13 +19,13 @@
     <sheet name="Pants" sheetId="4" r:id="rId4"/>
     <sheet name="Shorts" sheetId="5" r:id="rId5"/>
     <sheet name="Tops_Sweaters" sheetId="6" r:id="rId6"/>
-    <sheet name="T_Shirts" sheetId="7" r:id="rId7"/>
+    <sheet name="T-Shirts" sheetId="7" r:id="rId7"/>
     <sheet name="Jackets" sheetId="8" r:id="rId8"/>
     <sheet name="Sweatshirts" sheetId="9" r:id="rId9"/>
     <sheet name="Hats" sheetId="10" r:id="rId10"/>
     <sheet name="Accessories" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1373,8 +1379,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1437,6 +1443,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1483,7 +1497,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1515,9 +1529,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1549,6 +1581,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1724,14 +1774,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1778,7 +1828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1825,7 +1875,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1872,7 +1922,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1919,7 +1969,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1966,7 +2016,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2013,7 +2063,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2066,14 +2116,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2120,7 +2170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>366</v>
       </c>
@@ -2167,7 +2217,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>367</v>
       </c>
@@ -2214,7 +2264,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>368</v>
       </c>
@@ -2261,7 +2311,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>369</v>
       </c>
@@ -2308,7 +2358,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>370</v>
       </c>
@@ -2355,7 +2405,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>371</v>
       </c>
@@ -2402,7 +2452,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>372</v>
       </c>
@@ -2455,14 +2505,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2509,7 +2559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>409</v>
       </c>
@@ -2556,7 +2606,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>410</v>
       </c>
@@ -2603,7 +2653,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>411</v>
       </c>
@@ -2650,7 +2700,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>412</v>
       </c>
@@ -2697,7 +2747,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>413</v>
       </c>
@@ -2744,7 +2794,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>414</v>
       </c>
@@ -2791,7 +2841,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>415</v>
       </c>
@@ -2844,14 +2894,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2898,7 +2948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -2945,7 +2995,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -2992,7 +3042,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -3039,7 +3089,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -3092,14 +3142,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3146,7 +3196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -3193,7 +3243,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -3240,7 +3290,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -3284,7 +3334,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -3337,14 +3387,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3391,7 +3441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -3438,7 +3488,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -3485,7 +3535,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -3532,7 +3582,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -3579,7 +3629,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -3626,7 +3676,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -3673,7 +3723,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -3720,7 +3770,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -3767,7 +3817,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -3814,7 +3864,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -3861,7 +3911,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>117</v>
       </c>
@@ -3914,14 +3964,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3968,7 +4018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -4015,7 +4065,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -4068,14 +4118,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4122,7 +4172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>189</v>
       </c>
@@ -4169,7 +4219,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>190</v>
       </c>
@@ -4216,7 +4266,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -4263,7 +4313,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -4310,7 +4360,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>193</v>
       </c>
@@ -4357,7 +4407,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -4404,7 +4454,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>195</v>
       </c>
@@ -4451,7 +4501,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -4498,7 +4548,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -4545,7 +4595,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>198</v>
       </c>
@@ -4592,7 +4642,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -4645,14 +4695,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4699,7 +4749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>256</v>
       </c>
@@ -4746,7 +4796,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>257</v>
       </c>
@@ -4793,7 +4843,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>258</v>
       </c>
@@ -4840,7 +4890,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>259</v>
       </c>
@@ -4887,7 +4937,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>260</v>
       </c>
@@ -4940,14 +4990,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4994,7 +5044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>286</v>
       </c>
@@ -5041,7 +5091,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>287</v>
       </c>
@@ -5088,7 +5138,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>288</v>
       </c>
@@ -5135,7 +5185,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>289</v>
       </c>
@@ -5182,7 +5232,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>290</v>
       </c>
@@ -5229,7 +5279,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>291</v>
       </c>
@@ -5282,14 +5332,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5336,7 +5386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>323</v>
       </c>
@@ -5383,7 +5433,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>324</v>
       </c>
@@ -5430,7 +5480,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>325</v>
       </c>
@@ -5477,7 +5527,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>326</v>
       </c>
@@ -5524,7 +5574,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>327</v>
       </c>
@@ -5571,7 +5621,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>328</v>
       </c>
@@ -5618,7 +5668,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>329</v>
       </c>
